--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1971.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1971.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.021*"import" + 0.016*"foreign" + 0.016*"bank" + 0.015*"exchange" + 0.014*"may" + 0.011*"export" + 0.011*"currency" + 0.010*"account" + 0.010*"country" + 0.009*"payment"</t>
-  </si>
-  <si>
-    <t>0.020*"import" + 0.017*"exchange" + 0.016*"export" + 0.014*"bank" + 0.013*"per" + 0.013*"country" + 0.012*"account" + 0.012*"payment" + 0.012*"foreign" + 0.011*"may"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"bank" + 0.001*"import" + 0.001*"may" + 0.001*"foreign" + 0.001*"country" + 0.001*"per" + 0.001*"license" + 0.001*"currency" + 0.001*"export"</t>
-  </si>
-  <si>
-    <t>0.006*"exchange" + 0.006*"foreign" + 0.006*"may" + 0.006*"import" + 0.004*"payment" + 0.004*"bank" + 0.003*"export" + 0.003*"currency" + 0.003*"account" + 0.003*"per"</t>
-  </si>
-  <si>
-    <t>0.005*"import" + 0.005*"exchange" + 0.005*"foreign" + 0.004*"bank" + 0.004*"may" + 0.003*"payment" + 0.003*"per" + 0.003*"export" + 0.003*"country" + 0.003*"account"</t>
+    <t>0.062*"per" + 0.046*"cent" + 0.022*"u" + 0.018*"tax" + 0.018*"year" + 0.018*"import" + 0.016*"republic" + 0.010*"however" + 0.008*"subject" + 0.007*"arab"</t>
+  </si>
+  <si>
+    <t>0.030*"payment" + 0.026*"exchange" + 0.022*"must" + 0.017*"investment" + 0.017*"foreign" + 0.017*"bank" + 0.017*"country" + 0.015*"transaction" + 0.013*"make" + 0.013*"control"</t>
+  </si>
+  <si>
+    <t>0.039*"bank" + 0.039*"account" + 0.035*"foreign" + 0.032*"may" + 0.025*"currency" + 0.021*"exchange" + 0.021*"resident" + 0.019*"area" + 0.016*"nonresident" + 0.015*"transfer"</t>
+  </si>
+  <si>
+    <t>0.047*"gold" + 0.036*"fund" + 0.027*"monetary" + 0.022*"international" + 0.019*"may" + 0.017*"take" + 0.016*"traveler" + 0.015*"coin" + 0.014*"banknote" + 0.014*"foreign"</t>
+  </si>
+  <si>
+    <t>0.077*"import" + 0.038*"export" + 0.031*"license" + 0.025*"rate" + 0.017*"good" + 0.016*"certain" + 0.015*"require" + 0.014*"issue" + 0.013*"exchange" + 0.012*"market"</t>
   </si>
 </sst>
 </file>
